--- a/data_analysis_excel.xlsx
+++ b/data_analysis_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harma\OneDrive\Documents\Education Research Project\harman-khehara.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8288bd314cf484fd/Documents/Education Research Project/harman-khehara.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587CF8EA-F1CD-460A-BD61-D3C9F65266AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{587CF8EA-F1CD-460A-BD61-D3C9F65266AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D65C80E8-DD4F-432A-AF3E-0670005E8383}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{2A04B474-5109-4F4C-9FC0-1C15FA807060}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>GEO</t>
   </si>
@@ -71,12 +71,27 @@
   <si>
     <t xml:space="preserve">Canadian Computer Science Graduates </t>
   </si>
+  <si>
+    <t xml:space="preserve">Canadian Engineering Graduates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadian Agriculture Graduates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Computer Science Graduates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Engineering Graduates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Agriculture Graduates </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +107,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,11 +154,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -175,9 +234,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Computer Science Graduates by Province </a:t>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-CA"/>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Mathematics, Computer and Information Sciences Graduates by Province</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -733,6 +795,2962 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Canadian Architecture, Engineering and Related Technologies</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Graduates by Province</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D27-46E7-83D7-E1EAF9A11A08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D27-46E7-83D7-E1EAF9A11A08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D27-46E7-83D7-E1EAF9A11A08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1320501824"/>
+        <c:axId val="1320497248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1320501824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1320497248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1320497248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1320501824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Canadian Agriculture, Natural Resources and Conservation Graduates by Province</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$29:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E73-4147-8382-C63377851384}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$29:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E73-4147-8382-C63377851384}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$29:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E73-4147-8382-C63377851384}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1598406032"/>
+        <c:axId val="1598401040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1598406032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1598401040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1598401040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1598406032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>International Mathematics, Computer and Information Sciences Graduates by Province</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2E4-4F6F-AB2D-A469C1836EC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2E4-4F6F-AB2D-A469C1836EC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A2E4-4F6F-AB2D-A469C1836EC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1433209024"/>
+        <c:axId val="1433217760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1433209024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433217760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1433217760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433209024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>International Architecture, Engineering and Related Technologies Graduates by Province</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE7E-4F4A-A688-99F55A294F56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$55:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE7E-4F4A-A688-99F55A294F56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$55:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE7E-4F4A-A688-99F55A294F56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1433222336"/>
+        <c:axId val="1433220672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1433222336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433220672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1433220672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433222336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>International Agriculture, Natural Resources and Conservation Graduates by Province</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F786-4540-965D-D1B235C1391E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$68:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F786-4540-965D-D1B235C1391E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$68:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F786-4540-965D-D1B235C1391E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1403160112"/>
+        <c:axId val="1403160528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1403160112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1403160528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1403160528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1403160112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -773,7 +3791,2720 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1283,15 +7014,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>608330</xdr:colOff>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>174498</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175114</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1311,6 +7042,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EB6A9E-D322-48F1-BE5A-FDF9557260C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135890</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33020</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>113538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA97289-E2EB-45BD-A920-6684BB417B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47051678-266F-4A39-A763-1C7C6A189105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617B1A4C-1DB2-4EE4-B27D-E29CA6A25C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69A0ABE-DE9F-4E00-BF8F-D66FA6028716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1616,10 +7527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAEED26-E949-41D2-B6B0-DC8ABE1A1547}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,10 +7538,13 @@
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1785,6 +7699,792 @@
       </c>
       <c r="D12">
         <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>240</v>
+      </c>
+      <c r="C16">
+        <v>246</v>
+      </c>
+      <c r="D16">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>405</v>
+      </c>
+      <c r="C18">
+        <v>465</v>
+      </c>
+      <c r="D18">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>240</v>
+      </c>
+      <c r="C19">
+        <v>282</v>
+      </c>
+      <c r="D19">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>4020</v>
+      </c>
+      <c r="C20">
+        <v>4101</v>
+      </c>
+      <c r="D20">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>6384</v>
+      </c>
+      <c r="C21">
+        <v>6726</v>
+      </c>
+      <c r="D21">
+        <v>7296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>261</v>
+      </c>
+      <c r="C22">
+        <v>309</v>
+      </c>
+      <c r="D22">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>405</v>
+      </c>
+      <c r="C23">
+        <v>366</v>
+      </c>
+      <c r="D23">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>1239</v>
+      </c>
+      <c r="C24">
+        <v>1257</v>
+      </c>
+      <c r="D24">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1242</v>
+      </c>
+      <c r="C25">
+        <v>1200</v>
+      </c>
+      <c r="D25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>144</v>
+      </c>
+      <c r="C31">
+        <v>165</v>
+      </c>
+      <c r="D31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>456</v>
+      </c>
+      <c r="C33">
+        <v>420</v>
+      </c>
+      <c r="D33">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>1224</v>
+      </c>
+      <c r="C34">
+        <v>1179</v>
+      </c>
+      <c r="D34">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>138</v>
+      </c>
+      <c r="C35">
+        <v>144</v>
+      </c>
+      <c r="D35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>141</v>
+      </c>
+      <c r="C36">
+        <v>180</v>
+      </c>
+      <c r="D36">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>228</v>
+      </c>
+      <c r="C37">
+        <v>267</v>
+      </c>
+      <c r="D37">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>291</v>
+      </c>
+      <c r="C38">
+        <v>333</v>
+      </c>
+      <c r="D38">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>66</v>
+      </c>
+      <c r="D44">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>105</v>
+      </c>
+      <c r="C46">
+        <v>105</v>
+      </c>
+      <c r="D46">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>519</v>
+      </c>
+      <c r="C47">
+        <v>687</v>
+      </c>
+      <c r="D47">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>228</v>
+      </c>
+      <c r="C51">
+        <v>279</v>
+      </c>
+      <c r="D51">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>63</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>93</v>
+      </c>
+      <c r="C57">
+        <v>99</v>
+      </c>
+      <c r="D57">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>69</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>537</v>
+      </c>
+      <c r="C59">
+        <v>579</v>
+      </c>
+      <c r="D59">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>807</v>
+      </c>
+      <c r="C60">
+        <v>840</v>
+      </c>
+      <c r="D60">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>48</v>
+      </c>
+      <c r="C61">
+        <v>51</v>
+      </c>
+      <c r="D61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>84</v>
+      </c>
+      <c r="C62">
+        <v>81</v>
+      </c>
+      <c r="D62">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>150</v>
+      </c>
+      <c r="C63">
+        <v>168</v>
+      </c>
+      <c r="D63">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>222</v>
+      </c>
+      <c r="C64">
+        <v>225</v>
+      </c>
+      <c r="D64">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>48</v>
+      </c>
+      <c r="C70">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>66</v>
+      </c>
+      <c r="C72">
+        <v>66</v>
+      </c>
+      <c r="D72">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>75</v>
+      </c>
+      <c r="C73">
+        <v>99</v>
+      </c>
+      <c r="D73">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>45</v>
+      </c>
+      <c r="D74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>51</v>
+      </c>
+      <c r="C76">
+        <v>42</v>
+      </c>
+      <c r="D76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <v>66</v>
+      </c>
+      <c r="D77">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
